--- a/PrisonersDilemma/experiment3/contest5/payoff_data5.xlsx
+++ b/PrisonersDilemma/experiment3/contest5/payoff_data5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="4500" windowWidth="34440" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,37 +37,24 @@
   </si>
   <si>
     <t>str number</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>rank</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,6 +82,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,79 +111,92 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -584,1203 +593,1205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="A1:O34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.83203125" style="8"/>
+    <col min="14" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="6">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="6">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="6">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="6">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>21</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>32</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>24</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="J3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="K3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="L3" s="2">
-        <v>66000</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="H3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="L3" s="7">
+        <v>66000</v>
+      </c>
+      <c r="M3" s="7">
         <v>66000</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>3.261857</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>3.1868379999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>3.2070120000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>3.2829280000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>3.1516950000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>3.2253189999999998</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>3.2252999999999998</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>3.2395360000000002</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>3.1316959999999998</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>3.2141510000000002</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>3.2602289999999998</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="7">
         <v>3.1820240000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>0.82098499999999996</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.90184399999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.87160099999999996</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>0.83837899999999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>0.97184300000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>0.94159700000000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>0.76425299999999996</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>0.90426799999999996</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>0.84770299999999998</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="7">
         <v>0.77173499999999995</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <v>0.81569599999999998</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="7">
         <v>0.74327500000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>0.25</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>2.6768100000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2.6274060000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>2.638741</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>2.7368420000000002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>2.7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>2.8634810000000002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>2.6502620000000001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>2.7017540000000002</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>2.4074070000000001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>2.6388889999999998</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>2.6666669999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>0.5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>3.5354009999999998</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>3.5142859999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>3.52</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>3.6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="7">
         <v>3.375</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>3.56697</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>3.309091</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>3.5789469999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>3.285714</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>3.5183499999999999</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="6">
         <v>3.16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>0.75</v>
       </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7">
         <v>3.8947370000000001</v>
       </c>
-      <c r="K9" s="2">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="7">
+        <v>4</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="7">
         <v>3.6410260000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
         <v>4.9230770000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>4.9166670000000003</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>4.9090910000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>4.1666670000000003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="7">
         <v>4.25</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>4.7777779999999996</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>4.75</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>4.1111110000000002</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>4.75</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="7">
         <v>4.3333329999999997</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="7">
         <v>4.8181820000000002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>16</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>17</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>18</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>19</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>20</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>21</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="6">
         <v>22</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <v>23</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>33</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>27</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>31</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>23</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>19</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>12</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>66000</v>
-      </c>
-      <c r="C14">
-        <v>66000</v>
-      </c>
-      <c r="D14">
-        <v>66000</v>
-      </c>
-      <c r="E14">
-        <v>66000</v>
-      </c>
-      <c r="F14">
-        <v>66000</v>
-      </c>
-      <c r="G14">
-        <v>66000</v>
-      </c>
-      <c r="H14">
-        <v>66000</v>
-      </c>
-      <c r="I14">
-        <v>66000</v>
-      </c>
-      <c r="J14">
-        <v>66000</v>
-      </c>
-      <c r="K14">
-        <v>66000</v>
-      </c>
-      <c r="L14">
-        <v>66000</v>
-      </c>
-      <c r="M14">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="D14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>66000</v>
+      </c>
+      <c r="M14" s="8">
         <v>66000</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>3.2236590000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>3.2533780000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>3.1182599999999998</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>3.1868379999999998</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>3.2831939999999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>3.292214</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>3.2771430000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>3.1493169999999999</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>3.2161369999999998</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>3.2314219999999998</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>3.2616679999999998</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>3.0178419999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>0.73406199999999999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>0.86113899999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>0.90009799999999995</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>0.90184399999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>0.74132200000000004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>0.76691299999999996</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>0.73841299999999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>0.90132000000000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>0.88684300000000005</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="8">
         <v>0.92743900000000001</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <v>0.94603400000000004</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>1.013924</v>
       </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>0.25</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>2.5833330000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>2.8333330000000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>2.5853660000000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>2.6274060000000001</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>2.714286</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>2.7209300000000001</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>2.6818179999999998</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>2.6</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>2.7030189999999998</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="8">
         <v>2.8615379999999999</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="8">
         <v>2.9189189999999998</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>2.3333330000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>0.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>3.3333330000000001</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>3.5555560000000002</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>3.3333330000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>3.5142859999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>3.4571429999999999</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>3.5208330000000001</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <v>3.454545</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>3.4166669999999999</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>3.538462</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>3.5789469999999999</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>3.6274510000000002</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>3.1538460000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>0.75</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>3.85</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
         <v>3.8571430000000002</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
         <v>3.9166669999999999</v>
       </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
+      <c r="J20" s="8">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8">
+        <v>4</v>
+      </c>
+      <c r="L20" s="8">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8">
         <v>3.6666669999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8">
         <v>4.8947370000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>4.9166670000000003</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>4.9090910000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>4.9166670000000003</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>4.9230770000000001</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <v>4.6666670000000003</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>4.9166670000000003</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>4.9230770000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>4.9333330000000002</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>4.2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>26</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>27</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="6">
         <v>28</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>29</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>30</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="6">
         <v>31</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6">
         <v>32</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="6">
         <v>33</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>9</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="8">
         <v>17</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>14</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>66000</v>
-      </c>
-      <c r="C25">
-        <v>66000</v>
-      </c>
-      <c r="D25">
-        <v>66000</v>
-      </c>
-      <c r="E25">
-        <v>66000</v>
-      </c>
-      <c r="F25">
-        <v>66000</v>
-      </c>
-      <c r="G25">
-        <v>66000</v>
-      </c>
-      <c r="H25">
-        <v>66000</v>
-      </c>
-      <c r="I25">
-        <v>66000</v>
-      </c>
-      <c r="J25">
-        <v>66000</v>
-      </c>
-      <c r="K25">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="D25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="E25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="F25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="H25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="J25" s="8">
+        <v>66000</v>
+      </c>
+      <c r="K25" s="8">
         <v>66000</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>3.3296899999999998</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>3.193997</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>3.368328</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>3.348554</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>3.263531</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>3.2669000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="8">
         <v>3.2459980000000002</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>3.2558720000000001</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>3.247716</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="8">
         <v>3.2771430000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>0.74613099999999999</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>0.76018200000000002</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>0.69012300000000004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>0.70033500000000004</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>0.85772400000000004</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>0.87956100000000004</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="8">
         <v>0.85664600000000002</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>0.79331300000000005</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>0.779358</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="8">
         <v>0.73841299999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>0.25</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>2.9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>2.5777779999999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>2.8292679999999999</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>2.8888889999999998</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>2.8571430000000002</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="8">
         <v>2.75</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <v>2.6086960000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>2.6923080000000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>2.6808510000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="8">
         <v>2.6818179999999998</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>0.5</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>3.4583330000000001</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>3.214286</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>3.5319150000000001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="8">
         <v>3.507692</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="8">
         <v>3.5555560000000002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="8">
         <v>3.6041669999999999</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="8">
         <v>3.58209</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>3.4761899999999999</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>3.41791</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="8">
         <v>3.454545</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>0.75</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="8">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8">
         <v>3.7941180000000001</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31">
+      <c r="D31" s="8">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>4</v>
+      </c>
+      <c r="J31" s="8">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>4.8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>4.9230770000000001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>4.9230770000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>4.25</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>4.5</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="8">
         <v>4.6666670000000003</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
